--- a/biology/Zoologie/Ermite_à_longue_queue/Ermite_à_longue_queue.xlsx
+++ b/biology/Zoologie/Ermite_à_longue_queue/Ermite_à_longue_queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ermite_%C3%A0_longue_queue</t>
+          <t>Ermite_à_longue_queue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaethornis longirostris
 L'Ermite à longue queue (Phaethornis longirostris) est une espèce de colibris (famille des Trochilidae). Il était auparavant appelé Ermite à longue queue.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ermite_%C3%A0_longue_queue</t>
+          <t>Ermite_à_longue_queue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 15 cm de longueur. Il possède un plumage brunâtre, une tête contrastée avec deux bandes blanches soulignant chaque œil, une longue queue (d'où son nom) et un bec long et arqué[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 15 cm de longueur. Il possède un plumage brunâtre, une tête contrastée avec deux bandes blanches soulignant chaque œil, une longue queue (d'où son nom) et un bec long et arqué.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ermite_%C3%A0_longue_queue</t>
+          <t>Ermite_à_longue_queue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent en Amérique centrale (Salvador excepté), ainsi qu'au Mexique, en Colombie, en Équateur et au Pérou.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ermite_%C3%A0_longue_queue</t>
+          <t>Ermite_à_longue_queue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce habite les forêts tropicales et subtropicales humides de basse et haute altitudes.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ermite_%C3%A0_longue_queue</t>
+          <t>Ermite_à_longue_queue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles forment des leks lâches lors des parades nuptiales[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles forment des leks lâches lors des parades nuptiales.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ermite_%C3%A0_longue_queue</t>
+          <t>Ermite_à_longue_queue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,16 +656,53 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaethornis superciliosus (Sibley et Monroe 1990, 1993) a été scindé en P. longirostris et P. superciliosus à la suite de l'American Ornithologists' Union de 2002.
-Sous-espèces
-D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ermite_à_longue_queue</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ermite_%C3%A0_longue_queue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes (ordre phylogénique) :
 Phaethornis longirostris longirostris (Delattre, 1843) ;
 Phaethornis longirostris cephalus (Bourcier &amp; Mulsant, 1848) ;
 Phaethornis longirostris susurrus Bangs, 1901 ;
 Phaethornis longirostris baroni Hartert, 1897.
-Phaethornis baroni est traité comme conspécifique avec Phaethornis longirostris conformément au SACC (136)[2]. La restauration du statut des espèces mérite un réexamen compte tenu des distinctions morphologiques, des différences vocales (non documentées), de l'aire allopatrique et des progrès de la taxonomie de ce complexe d'espèces (Ridgely et Greenfield 2001, HBW). Une phylogénie de ces ermites serait la bienvenue.
+Phaethornis baroni est traité comme conspécifique avec Phaethornis longirostris conformément au SACC (136). La restauration du statut des espèces mérite un réexamen compte tenu des distinctions morphologiques, des différences vocales (non documentées), de l'aire allopatrique et des progrès de la taxonomie de ce complexe d'espèces (Ridgely et Greenfield 2001, HBW). Une phylogénie de ces ermites serait la bienvenue.
 </t>
         </is>
       </c>
